--- a/Functionality/Data/Test/AllTestSuitesDataSet.xlsx
+++ b/Functionality/Data/Test/AllTestSuitesDataSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8544" tabRatio="850" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8544" tabRatio="850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="17" r:id="rId1"/>
@@ -777,15 +777,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.89453125" customWidth="1"/>
+    <col min="2" max="2" width="38.5234375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="37" customWidth="1"/>
-    <col min="5" max="6" width="22.6640625" customWidth="1"/>
+    <col min="5" max="6" width="22.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -803,7 +803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -837,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -857,7 +857,7 @@
         <v>226729</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>5267296</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -897,7 +897,7 @@
         <v>20267296</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -917,7 +917,7 @@
         <v>5294967296</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
@@ -1017,13 +1017,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
     </row>
@@ -1111,14 +1111,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.89453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="23.88671875" customWidth="1"/>
+    <col min="3" max="7" width="23.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B6</f>
         <v>qa_common_0820@yopmail.com</v>
@@ -1179,23 +1179,23 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.68359375" customWidth="1"/>
+    <col min="3" max="3" width="30.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B8</f>
         <v>qarp0806@gmail.com</v>
@@ -1288,25 +1288,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5234375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B7</f>
         <v>devops@qsrinternational.com</v>
@@ -1371,7 +1371,7 @@
         <v>123456</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1387,13 +1387,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.89453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B6</f>
         <v>qa_common_0820@yopmail.com</v>
@@ -1424,17 +1424,17 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1455,18 +1455,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B14</f>
         <v>qa_selectlang_0806@yopmail.com</v>
@@ -1531,17 +1531,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B13</f>
         <v>qa_cancel_upload_0806@yopmail.com</v>
@@ -1597,20 +1597,20 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f>Common!B12</f>
         <v>qa_delete_upload_0806@yopmail.com</v>

--- a/Functionality/Data/Test/AllTestSuitesDataSet.xlsx
+++ b/Functionality/Data/Test/AllTestSuitesDataSet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>username</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>5468QSR-struthious;hymnology</t>
+  </si>
+  <si>
+    <t>Testing123</t>
   </si>
 </sst>
 </file>
@@ -1364,14 +1367,14 @@
         <v>62</v>
       </c>
       <c r="H2" t="str">
-        <f>Common!B11</f>
-        <v>qablocked0806@gmail.com</v>
-      </c>
-      <c r="I2">
-        <v>123456</v>
+        <f>SigninData!I2</f>
+        <v>Testing123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Functionality/Data/Test/AllTestSuitesDataSet.xlsx
+++ b/Functionality/Data/Test/AllTestSuitesDataSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8544" tabRatio="850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8544" tabRatio="850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="17" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="ResetPasswordData" sheetId="45" r:id="rId3"/>
     <sheet name="SigninData" sheetId="46" r:id="rId4"/>
     <sheet name="LogOutData" sheetId="43" r:id="rId5"/>
-    <sheet name="PrivacyPolicyData" sheetId="44" r:id="rId6"/>
-    <sheet name="UL-374" sheetId="42" r:id="rId7"/>
-    <sheet name="UL-668" sheetId="25" r:id="rId8"/>
-    <sheet name="UL-335" sheetId="35" r:id="rId9"/>
+    <sheet name="ImportFiledata" sheetId="54" r:id="rId6"/>
+    <sheet name="PrivacyPolicyData" sheetId="44" r:id="rId7"/>
+    <sheet name="UL-374" sheetId="42" r:id="rId8"/>
+    <sheet name="UL-668" sheetId="25" r:id="rId9"/>
+    <sheet name="UL-335" sheetId="35" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>username</t>
   </si>
@@ -363,6 +364,18 @@
   </si>
   <si>
     <t>Testing123</t>
+  </si>
+  <si>
+    <t>test_file_folder</t>
+  </si>
+  <si>
+    <t>test_file_name</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>meals.csv</t>
   </si>
 </sst>
 </file>
@@ -777,7 +790,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1103,6 +1116,69 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str">
+        <f>Common!B12</f>
+        <v>qa_delete_upload_0806@yopmail.com</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Common!B5</f>
+        <v>5468QSR-struthious;hymnology</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Common!D11</f>
+        <v>TestData\TestDeleteFiles\</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <f>Common!F5</f>
+        <v>226729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1291,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1421,6 +1497,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.62890625" customWidth="1"/>
+    <col min="2" max="2" width="25.578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7890625" customWidth="1"/>
+    <col min="4" max="4" width="25.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str">
+        <f>Common!B7</f>
+        <v>devops@qsrinternational.com</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Common!B5</f>
+        <v>5468QSR-struthious;hymnology</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1447,7 +1574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
@@ -1523,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1591,67 +1718,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="9.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5234375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="str">
-        <f>Common!B12</f>
-        <v>qa_delete_upload_0806@yopmail.com</v>
-      </c>
-      <c r="B2" t="str">
-        <f>Common!B5</f>
-        <v>5468QSR-struthious;hymnology</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Common!D11</f>
-        <v>TestData\TestDeleteFiles\</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2">
-        <f>Common!F5</f>
-        <v>226729</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>